--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\STC\KatalonProjects\TrainingWebProject\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\STC\Automation\katalon\katalon_Course\TrainingWebProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146314C3-1A8A-4C9D-8EA8-CC907C150083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5820EA-03CC-4CA6-AB81-3E4890A0C8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDrivenDemo" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>RAIVpflpDOg=</t>
+  </si>
+  <si>
+    <t>admin@saudiesports.sa</t>
+  </si>
+  <si>
+    <t>admin@P@ssw0rd</t>
   </si>
 </sst>
 </file>
@@ -367,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,4 +415,43 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901FC4A5-C196-4CCC-B309-A94DB1F9E3FC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A74425B8-2FC9-40D7-B028-CC0DFF6BDB8D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B3F7C387-51A3-4832-A6B6-0BE641E9149B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>